--- a/sbc-benchmark.xlsx
+++ b/sbc-benchmark.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -423,7 +423,7 @@
         <v>223</v>
       </c>
       <c r="E4">
-        <v>982</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
